--- a/AdsData.xlsx
+++ b/AdsData.xlsx
@@ -14,36 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$4:$D$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$F$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$F$4:$F$11</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$G$3</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$G$4:$G$11</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$4:$D$11</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$E$3</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$E$4:$E$11</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$F$3</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$F$4:$F$11</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$G$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$4:$E$11</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$G$4:$G$11</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$D$4:$D$11</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$E$3</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$E$4:$E$11</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$F$3</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$F$4:$F$11</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$G$3</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$G$4:$G$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$4:$F$11</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$4:$G$11</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$4:$D$11</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$E$4:$E$11</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -60,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Candidates</t>
   </si>
@@ -98,12 +68,6 @@
     <t xml:space="preserve">Yang </t>
   </si>
   <si>
-    <t>in thousand</t>
-  </si>
-  <si>
-    <t>in million</t>
-  </si>
-  <si>
     <t xml:space="preserve">New Hampshire </t>
   </si>
   <si>
@@ -111,6 +75,9 @@
   </si>
   <si>
     <t>Nevada</t>
+  </si>
+  <si>
+    <t>Candidate</t>
   </si>
 </sst>
 </file>
@@ -476,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,14 +458,6 @@
     <col min="5" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
@@ -514,14 +473,17 @@
       <c r="B3" s="2">
         <v>0.9</v>
       </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -649,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
